--- a/Data/Predictions/XGBoost/exclude_previous_rating_model_2/exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/XGBoost/exclude_previous_rating_model_2/exclude_previous_rating_model_2_predictions.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19655,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
